--- a/03 Products & Pricing/01-03 Swaps/OIS-RFR-DailyInterest-Compounding.xlsx
+++ b/03 Products & Pricing/01-03 Swaps/OIS-RFR-DailyInterest-Compounding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\BOOK\.SWAPS_BOOK\03 Products &amp; Pricing\01-03 Swaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD843F29-EBAD-4B06-BCB6-808A977869AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354A1634-C958-4884-A8CC-A90DE83CB764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="1905" windowWidth="26325" windowHeight="18180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CompoundRates" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Start</t>
   </si>
@@ -145,6 +145,74 @@
   <si>
     <t>OIS and RFR Daily Rate Compounding Example</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cpn YearFrac, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DailyRate, r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DailyYearFrac, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +224,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.000000"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +236,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,6 +263,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,12 +319,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,11 +332,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,27 +365,72 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +595,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381218</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133443</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>516034</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>171543</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,22 +633,25 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>381306</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76285</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609173</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -520,16 +686,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>400269</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95311</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>343118</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -888,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCE2842-E2B2-4503-A587-49E02903BA6D}">
   <dimension ref="B2:J108"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -904,12 +1070,12 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
@@ -921,55 +1087,55 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f ca="1">SUM(D9:D108)</f>
         <v>140</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="12">
         <f ca="1">SUM(F9:F108)</f>
         <v>0.38356164383561597</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="13">
         <f ca="1">G108</f>
         <v>1.0108247069056382</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="13">
         <f ca="1">H108</f>
         <v>0.98929121257950348</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="30" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>44174</v>
       </c>
@@ -988,15 +1154,15 @@
         <f ca="1">D9/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f ca="1">(1+E9*F9)</f>
         <v>1.0001339087856005</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <f ca="1">1/G9</f>
         <v>0.99986610914356155</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="10">
         <f ca="1">SUMPRODUCT(E9:E108,F9:F108)/$F$6</f>
         <v>2.807283063166684E-2</v>
       </c>
@@ -1021,11 +1187,11 @@
         <f t="shared" ref="F10:F73" ca="1" si="2">D10/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <f ca="1">(1+E10*F10)*G9</f>
         <v>1.0002485734972513</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <f t="shared" ref="H10:H73" ca="1" si="3">1/G10</f>
         <v>0.99975148827617699</v>
       </c>
@@ -1050,11 +1216,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f t="shared" ref="G11:G74" ca="1" si="5">(1+E11*F11)*G10</f>
         <v>1.0003975680608346</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99960258993671369</v>
       </c>
@@ -1079,11 +1245,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0004829021648762</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99951733091706885</v>
       </c>
@@ -1108,11 +1274,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0005228387090124</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99947743450845461</v>
       </c>
@@ -1137,11 +1303,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0005462609707627</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99945403726736959</v>
       </c>
@@ -1166,11 +1332,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0005867432082161</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99941360085749809</v>
       </c>
@@ -1198,15 +1364,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0006200991472032</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99938028513745458</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="10">
         <f ca="1">(G6-1)/F6</f>
         <v>2.8221557289699609E-2</v>
       </c>
@@ -1231,11 +1397,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0007438648055356</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99925668811801294</v>
       </c>
@@ -1260,11 +1426,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.000778179211234</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.9992224258807807</v>
       </c>
@@ -1289,11 +1455,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0008960655100785</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99910473670448308</v>
       </c>
@@ -1318,11 +1484,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0009664363480371</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99903449674939848</v>
       </c>
@@ -1347,11 +1513,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0012712102479469</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99873040367591104</v>
       </c>
@@ -1376,11 +1542,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0013285405395789</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99867322213859699</v>
       </c>
@@ -1408,15 +1574,15 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0014134536520836</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99858854137925868</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="10">
         <f ca="1">(1/H6-1)/F6</f>
         <v>2.8221557289699609E-2</v>
       </c>
@@ -1441,11 +1607,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0015298183824115</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99847251838703877</v>
       </c>
@@ -1471,11 +1637,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0016017706634563</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99840079090276035</v>
       </c>
@@ -1500,11 +1666,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0019913909217504</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99801256683461281</v>
       </c>
@@ -1529,11 +1695,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.002101015759034</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99790338925318567</v>
       </c>
@@ -1558,11 +1724,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0021235592442523</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99788094070370548</v>
       </c>
@@ -1587,11 +1753,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0021605327404979</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99784412509781273</v>
       </c>
@@ -1616,11 +1782,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0021922823219682</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99781251326652709</v>
       </c>
@@ -1645,11 +1811,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0025987087542947</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99740802702855713</v>
       </c>
@@ -1674,11 +1840,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0026139475613065</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99739286734673449</v>
       </c>
@@ -1703,11 +1869,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0026924207090857</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.997314808954892</v>
       </c>
@@ -1732,11 +1898,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0027607747205676</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99724682617213767</v>
       </c>
@@ -1761,11 +1927,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0028546472210176</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99715347859340531</v>
       </c>
@@ -1790,11 +1956,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.00324929818987</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99676122555407454</v>
       </c>
@@ -1819,11 +1985,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0032580241818785</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99675255606897806</v>
       </c>
@@ -1848,11 +2014,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0033131207894215</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99669781973267257</v>
       </c>
@@ -1877,11 +2043,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0033519037538023</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99665929397127573</v>
       </c>
@@ -1906,11 +2072,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0033582528684619</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99665298724671758</v>
       </c>
@@ -1935,11 +2101,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0034471858082545</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99656465645924563</v>
       </c>
@@ -1964,11 +2130,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0035179890127914</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99649434384703728</v>
       </c>
@@ -1993,11 +2159,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0036102352255392</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99640275168703529</v>
       </c>
@@ -2022,11 +2188,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0036586919009243</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99635464532868767</v>
       </c>
@@ -2051,11 +2217,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0037670623394104</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99624707516240796</v>
       </c>
@@ -2080,11 +2246,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0041606557795895</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99585658355001039</v>
       </c>
@@ -2109,11 +2275,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0042635240763158</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99575457638946185</v>
       </c>
@@ -2138,11 +2304,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0043317414485911</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99568694160522775</v>
       </c>
@@ -2167,11 +2333,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0043580656705211</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99566084465343385</v>
       </c>
@@ -2196,11 +2362,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0044130725870946</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99560631705466784</v>
       </c>
@@ -2225,11 +2391,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0044836273689073</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99553638581382209</v>
       </c>
@@ -2254,11 +2420,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0044960754290861</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99552404878519252</v>
       </c>
@@ -2283,11 +2449,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.004520513617104</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99549982946507831</v>
       </c>
@@ -2312,11 +2478,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0046399058968134</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99538152339999719</v>
       </c>
@@ -2341,11 +2507,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0046450564024454</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99537642038564444</v>
       </c>
@@ -2370,11 +2536,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0050036739561525</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99502123814487586</v>
       </c>
@@ -2399,11 +2565,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0050524772973193</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99497292190064957</v>
       </c>
@@ -2428,11 +2594,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0050961263986111</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99492971242773443</v>
       </c>
@@ -2457,11 +2623,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0051295384262806</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99489663945772411</v>
       </c>
@@ -2486,11 +2652,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0051381128461974</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99488815240360551</v>
       </c>
@@ -2515,11 +2681,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0053503254432037</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99467814819590872</v>
       </c>
@@ -2544,11 +2710,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0054237300419544</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99460552811725655</v>
       </c>
@@ -2573,11 +2739,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.005528075536479</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99450231607553108</v>
       </c>
@@ -2602,11 +2768,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0055770440798553</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99445388683772262</v>
       </c>
@@ -2631,11 +2797,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0056072210907032</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99442404452444011</v>
       </c>
@@ -2660,11 +2826,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0059909225277941</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99404475488432797</v>
       </c>
@@ -2689,11 +2855,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0060816411414089</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99395512163952304</v>
       </c>
@@ -2718,11 +2884,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0061315995505145</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99390576784065454</v>
       </c>
@@ -2747,11 +2913,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0062474011562799</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99379138654261268</v>
       </c>
@@ -2776,11 +2942,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0063490223639671</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.9936910334060316</v>
       </c>
@@ -2805,11 +2971,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.006684408385873</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99335997624459993</v>
       </c>
@@ -2834,11 +3000,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0067354678587934</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.99330959514804917</v>
       </c>
@@ -2863,11 +3029,11 @@
         <f t="shared" ca="1" si="2"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0068567375410302</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>0.9931899571355346</v>
       </c>
@@ -2892,11 +3058,11 @@
         <f t="shared" ref="F74:F108" ca="1" si="9">D74/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>1.0069180277070209</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="8">
         <f t="shared" ref="H74:H108" ca="1" si="10">1/G74</f>
         <v>0.99312950258446087</v>
       </c>
@@ -2921,11 +3087,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="8">
         <f t="shared" ref="G75:G108" ca="1" si="11">(1+E75*F75)*G74</f>
         <v>1.0070246405774683</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99302436078084433</v>
       </c>
@@ -2950,11 +3116,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0072166679838321</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99283503915966964</v>
       </c>
@@ -2979,11 +3145,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0072688412992603</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99278361346918631</v>
       </c>
@@ -3008,11 +3174,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0073117091871844</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99274136384944411</v>
       </c>
@@ -3037,11 +3203,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0074060573800845</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99264838907228226</v>
       </c>
@@ -3066,11 +3232,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.007408481917401</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99264600005818848</v>
       </c>
@@ -3095,11 +3261,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0077925552871307</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99226769909516688</v>
       </c>
@@ -3124,11 +3290,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0078755493870646</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99218599023276821</v>
       </c>
@@ -3153,11 +3319,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0079662701393002</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.9920966897650263</v>
       </c>
@@ -3182,11 +3348,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0080333989398966</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99203062225086491</v>
       </c>
@@ -3211,11 +3377,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0081615737305349</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99190449830344718</v>
       </c>
@@ -3240,11 +3406,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0085202689288699</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99155171275048426</v>
       </c>
@@ -3269,11 +3435,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0085609740277124</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99151169413830886</v>
       </c>
@@ -3298,11 +3464,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0086211839064623</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99145250561457399</v>
       </c>
@@ -3327,11 +3493,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0086404802883564</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99143353805720136</v>
       </c>
@@ -3356,11 +3522,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0086575502735331</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.9914167595620681</v>
       </c>
@@ -3385,11 +3551,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0090389300133875</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99104204035688936</v>
       </c>
@@ -3414,11 +3580,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0091684317862304</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99091486465742662</v>
       </c>
@@ -3443,11 +3609,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0092862102200519</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99079923006376225</v>
       </c>
@@ -3472,11 +3638,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0093837543789548</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99070348186381463</v>
       </c>
@@ -3501,11 +3667,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0094161012924951</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99067173459940017</v>
       </c>
@@ -3530,11 +3696,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0095469391024734</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99054334302577252</v>
       </c>
@@ -3559,11 +3725,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.009649300380645</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99044291876693502</v>
       </c>
@@ -3588,11 +3754,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0096725998948863</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99042006300270669</v>
       </c>
@@ -3617,11 +3783,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0098053078003402</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99028990269253081</v>
       </c>
@@ -3646,11 +3812,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0098629178567886</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.99023340922575864</v>
       </c>
@@ -3675,11 +3841,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0101967682060917</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98990615637763413</v>
       </c>
@@ -3704,11 +3870,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.010239842593492</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98986394897353858</v>
       </c>
@@ -3733,11 +3899,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G103" s="10">
+      <c r="G103" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0103601512607003</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98974608089227067</v>
       </c>
@@ -3762,11 +3928,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0104283375437297</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98967929030070534</v>
       </c>
@@ -3791,11 +3957,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G105" s="10">
+      <c r="G105" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0104988563864188</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.9896102243757473</v>
       </c>
@@ -3820,11 +3986,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>8.21917808219178E-3</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0106193923570785</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98949219415599099</v>
       </c>
@@ -3849,11 +4015,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.010704217592318</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98940914917935396</v>
       </c>
@@ -3878,11 +4044,11 @@
         <f t="shared" ca="1" si="9"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="8">
         <f t="shared" ca="1" si="11"/>
         <v>1.0108247069056382</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="8">
         <f t="shared" ca="1" si="10"/>
         <v>0.98929121257950348</v>
       </c>
@@ -3895,831 +4061,796 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE77E2C-58C1-4001-A029-69A4DB57420C}">
-  <dimension ref="B2:T30"/>
+  <dimension ref="B2:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="8" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
-    </row>
-    <row r="5" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D6" s="13">
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="17">
         <f ca="1">SUM(D9:D30)</f>
         <v>30</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E6" s="14"/>
+      <c r="F6" s="18">
         <f ca="1">SUM(F9:F30)</f>
         <v>8.2191780821917831E-2</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="19">
         <f ca="1">G30</f>
         <v>1.0021922823219682</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="19">
         <f ca="1">H30</f>
         <v>0.99781251326652709</v>
       </c>
-      <c r="J6" s="12">
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
+        <v>44174</v>
+      </c>
+      <c r="C9" s="20">
+        <f ca="1">IF(WEEKDAY(B9,2)=5,B9+3,B9+1)</f>
+        <v>44175</v>
+      </c>
+      <c r="D9" s="15">
+        <f ca="1">C9-B9</f>
+        <v>1</v>
+      </c>
+      <c r="E9" s="21">
+        <v>4.8876706744153155E-2</v>
+      </c>
+      <c r="F9" s="22">
+        <f ca="1">D9/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G9" s="23">
+        <f ca="1">(1+E9*F9)</f>
+        <v>1.0001339087856005</v>
+      </c>
+      <c r="H9" s="23">
+        <f ca="1">1/G9</f>
+        <v>0.99986610914356155</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <f ca="1">IF(WEEKDAY(B9,2)=6,B9+3,IF(WEEKDAY(B9,2)=7,B9+2, B9+1))</f>
+        <v>44175</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:C30" ca="1" si="0">IF(WEEKDAY(B10,2)=5,B10+3,B10+1)</f>
+        <v>44176</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D30" ca="1" si="1">C10-B10</f>
+        <v>1</v>
+      </c>
+      <c r="E10" s="21">
+        <v>4.1847016069459154E-2</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" ref="F10:F30" ca="1" si="2">D10/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G10" s="23">
+        <f ca="1">(1+E10*F10)*G9</f>
+        <v>1.0002485734972513</v>
+      </c>
+      <c r="H10" s="23">
+        <f t="shared" ref="H10:H30" ca="1" si="3">1/G10</f>
+        <v>0.99975148827617699</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
+        <f t="shared" ref="B11" ca="1" si="4">IF(WEEKDAY(B10,2)=6,B10+3,IF(WEEKDAY(B10,2)=7,B10+2, B10+1))</f>
+        <v>44176</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44179</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="21">
+        <v>1.8123166963661754E-2</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="G11" s="23">
+        <f t="shared" ref="G11:G30" ca="1" si="5">(1+E11*F11)*G10</f>
+        <v>1.0003975680608346</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99960258993671369</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <f ca="1">IF(WEEKDAY(B11,2)=5,B11+3,IF(WEEKDAY(B11,2)=6,B11+2, B11+1))</f>
+        <v>44179</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44180</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3.1134569864692804E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G12" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0004829021648762</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99951733091706885</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <f t="shared" ref="B13:B30" ca="1" si="6">IF(WEEKDAY(B12,2)=5,B12+3,IF(WEEKDAY(B12,2)=6,B12+2, B12+1))</f>
+        <v>44180</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44181</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1.4569802820406937E-2</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0005228387090124</v>
+      </c>
+      <c r="H13" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99947743450845461</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44181</v>
+      </c>
+      <c r="C14" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44182</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>8.5446580608477766E-3</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G14" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0005462609707627</v>
+      </c>
+      <c r="H14" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99945403726736959</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44182</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44183</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1.4767949516011854E-2</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0005867432082161</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99941360085749809</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44183</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44186</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="21">
+        <v>4.0559261230101893E-3</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0006200991472032</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99938028513745458</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44186</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44187</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>4.5146470003764851E-2</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0007438648055356</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99925668811801294</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44187</v>
+      </c>
+      <c r="C18" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44188</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>1.2515448278385894E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.000778179211234</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.9992224258807807</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44188</v>
+      </c>
+      <c r="C19" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44189</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="21">
+        <v>4.2995041230944414E-2</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G19" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0008960655100785</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99910473670448308</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44189</v>
+      </c>
+      <c r="C20" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44190</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2.5662360698550608E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0009664363480371</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99903449674939848</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44190</v>
+      </c>
+      <c r="C21" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44193</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E21" s="21">
+        <v>3.704502283244273E-2</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="G21" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0012712102479469</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99873040367591104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44193</v>
+      </c>
+      <c r="C22" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44194</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="21">
+        <v>2.0898989436203864E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G22" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0013285405395789</v>
+      </c>
+      <c r="H22" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99867322213859699</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44194</v>
+      </c>
+      <c r="C23" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44195</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>3.0952164858440236E-2</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G23" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0014134536520836</v>
+      </c>
+      <c r="H23" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99858854137925868</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44195</v>
+      </c>
+      <c r="C24" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44196</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="21">
+        <v>4.2413177509071337E-2</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G24" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0015298183824115</v>
+      </c>
+      <c r="H24" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99847251838703877</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44196</v>
+      </c>
+      <c r="C25" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44197</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>2.6222466969374227E-2</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G25" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0016017706634563</v>
+      </c>
+      <c r="H25" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99840079090276035</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44197</v>
+      </c>
+      <c r="C26" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44200</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="21">
+        <v>4.7327989507291224E-2</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="G26" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0019913909217504</v>
+      </c>
+      <c r="H26" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99801256683461281</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44200</v>
+      </c>
+      <c r="C27" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44201</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>3.9933542314862652E-2</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G27" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.002101015759034</v>
+      </c>
+      <c r="H27" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99790338925318567</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44201</v>
+      </c>
+      <c r="C28" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44202</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="21">
+        <v>8.2111204113671961E-3</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G28" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0021235592442523</v>
+      </c>
+      <c r="H28" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99788094070370548</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44202</v>
+      </c>
+      <c r="C29" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44203</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="21">
+        <v>1.3466728733289036E-2</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G29" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0021605327404979</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99784412509781273</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>44203</v>
+      </c>
+      <c r="C30" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44204</v>
+      </c>
+      <c r="D30" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1.1563613670707247E-2</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="G30" s="23">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0021922823219682</v>
+      </c>
+      <c r="H30" s="23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.99781251326652709</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B34" s="26">
         <f ca="1">SUMPRODUCT(E9:E30,F9:F30)/$F$6</f>
         <v>2.6645938115658359E-2</v>
       </c>
-      <c r="M6" s="12">
+      <c r="C34" s="14"/>
+      <c r="D34" s="26">
         <f ca="1">(G6-1)/F6</f>
         <v>2.6672768250613332E-2</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="26">
         <f ca="1">(1/H6-1)/F6</f>
         <v>2.6672768250613332E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-    </row>
-    <row r="8" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>44174</v>
-      </c>
-      <c r="C9" s="1">
-        <f ca="1">IF(WEEKDAY(B9,2)=5,B9+3,B9+1)</f>
-        <v>44175</v>
-      </c>
-      <c r="D9" s="2">
-        <f ca="1">C9-B9</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.8876706744153155E-2</v>
-      </c>
-      <c r="F9" s="4">
-        <f ca="1">D9/365</f>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G9" s="10">
-        <f ca="1">(1+E9*F9)</f>
-        <v>1.0001339087856005</v>
-      </c>
-      <c r="H9" s="10">
-        <f ca="1">1/G9</f>
-        <v>0.99986610914356155</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <f ca="1">IF(WEEKDAY(B9,2)=6,B9+3,IF(WEEKDAY(B9,2)=7,B9+2, B9+1))</f>
-        <v>44175</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:C30" ca="1" si="0">IF(WEEKDAY(B10,2)=5,B10+3,B10+1)</f>
-        <v>44176</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" ref="D10:D30" ca="1" si="1">C10-B10</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.1847016069459154E-2</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" ref="F10:F30" ca="1" si="2">D10/365</f>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G10" s="10">
-        <f ca="1">(1+E10*F10)*G9</f>
-        <v>1.0002485734972513</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" ref="H10:H30" ca="1" si="3">1/G10</f>
-        <v>0.99975148827617699</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <f t="shared" ref="B11" ca="1" si="4">IF(WEEKDAY(B10,2)=6,B10+3,IF(WEEKDAY(B10,2)=7,B10+2, B10+1))</f>
-        <v>44176</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44179</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1.8123166963661754E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.21917808219178E-3</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" ref="G11:G30" ca="1" si="5">(1+E11*F11)*G10</f>
-        <v>1.0003975680608346</v>
-      </c>
-      <c r="H11" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99960258993671369</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <f ca="1">IF(WEEKDAY(B11,2)=5,B11+3,IF(WEEKDAY(B11,2)=6,B11+2, B11+1))</f>
-        <v>44179</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44180</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.1134569864692804E-2</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0004829021648762</v>
-      </c>
-      <c r="H12" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99951733091706885</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:B30" ca="1" si="6">IF(WEEKDAY(B12,2)=5,B12+3,IF(WEEKDAY(B12,2)=6,B12+2, B12+1))</f>
-        <v>44180</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44181</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1.4569802820406937E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0005228387090124</v>
-      </c>
-      <c r="H13" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99947743450845461</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44181</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44182</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8.5446580608477766E-3</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G14" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0005462609707627</v>
-      </c>
-      <c r="H14" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99945403726736959</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44182</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44183</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1.4767949516011854E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G15" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0005867432082161</v>
-      </c>
-      <c r="H15" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99941360085749809</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44183</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44186</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4.0559261230101893E-3</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.21917808219178E-3</v>
-      </c>
-      <c r="G16" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0006200991472032</v>
-      </c>
-      <c r="H16" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99938028513745458</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44186</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44187</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.5146470003764851E-2</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G17" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0007438648055356</v>
-      </c>
-      <c r="H17" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99925668811801294</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44187</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44188</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1.2515448278385894E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G18" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.000778179211234</v>
-      </c>
-      <c r="H18" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.9992224258807807</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44188</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44189</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>4.2995041230944414E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0008960655100785</v>
-      </c>
-      <c r="H19" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99910473670448308</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44189</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44190</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.5662360698550608E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G20" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0009664363480371</v>
-      </c>
-      <c r="H20" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99903449674939848</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44190</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44193</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3.704502283244273E-2</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.21917808219178E-3</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0012712102479469</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99873040367591104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44193</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44194</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.0898989436203864E-2</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0013285405395789</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99867322213859699</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44194</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44195</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3.0952164858440236E-2</v>
-      </c>
-      <c r="F23" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0014134536520836</v>
-      </c>
-      <c r="H23" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99858854137925868</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44195</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44196</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4.2413177509071337E-2</v>
-      </c>
-      <c r="F24" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0015298183824115</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99847251838703877</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44196</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44197</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.6222466969374227E-2</v>
-      </c>
-      <c r="F25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G25" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0016017706634563</v>
-      </c>
-      <c r="H25" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99840079090276035</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44197</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44200</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
-        <v>4.7327989507291224E-2</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>8.21917808219178E-3</v>
-      </c>
-      <c r="G26" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0019913909217504</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99801256683461281</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44200</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44201</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3.9933542314862652E-2</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G27" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.002101015759034</v>
-      </c>
-      <c r="H27" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99790338925318567</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44201</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44202</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="3">
-        <v>8.2111204113671961E-3</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G28" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0021235592442523</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99788094070370548</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44202</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44203</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1.3466728733289036E-2</v>
-      </c>
-      <c r="F29" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G29" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0021605327404979</v>
-      </c>
-      <c r="H29" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99784412509781273</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>44203</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>44204</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1.1563613670707247E-2</v>
-      </c>
-      <c r="F30" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.7397260273972603E-3</v>
-      </c>
-      <c r="G30" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.0021922823219682</v>
-      </c>
-      <c r="H30" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.99781251326652709</v>
-      </c>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
